--- a/raw-data.xlsx
+++ b/raw-data.xlsx
@@ -1,28 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
+  <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="196" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="2014" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="2013" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="2012" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="2011" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="2010" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="population" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="birth" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="death" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="2014" sheetId="1" r:id="rId1"/>
+    <sheet name="2013" sheetId="2" r:id="rId2"/>
+    <sheet name="2012" sheetId="3" r:id="rId3"/>
+    <sheet name="2011" sheetId="4" r:id="rId4"/>
+    <sheet name="2010" sheetId="5" r:id="rId5"/>
+    <sheet name="population" sheetId="6" r:id="rId6"/>
+    <sheet name="death" sheetId="7" r:id="rId7"/>
+    <sheet name="birth" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"2014"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"2013"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"2012"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"2011"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="4">"2010"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="5">"population"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="6">"death"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="7">"birth"</definedName>
+  </definedNames>
+  <calcPr calcMode="auto" iterate="0" iterateCount="100" iterateDelta="0.001"/>
+  <webPublishing allowPng="1" css="0" codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33" count="33">
   <si>
     <t>in/out</t>
   </si>
@@ -110,6 +128,9 @@
     <t>Gyeongsangnam-do</t>
   </si>
   <si>
+    <t>in/out</t>
+  </si>
+  <si>
     <t>local/year</t>
   </si>
   <si>
@@ -132,39 +153,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.0_ " numFmtId="165"/>
-    <numFmt formatCode="#,##0" numFmtId="166"/>
-    <numFmt formatCode="#,##0.0" numFmtId="167"/>
+  <numFmts count="2">
+    <numFmt formatCode="0.0_ " numFmtId="100"/>
+    <numFmt formatCode="#,##0.0" numFmtId="101"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
+      <b val="0"/>
+      <i val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Bitstream Charter"/>
       <sz val="10"/>
+      <strike val="0"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Bitstream Charter"/>
-      <charset val="1"/>
-      <family val="1"/>
-      <sz val="10"/>
+      <strike val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,6497 +184,6626 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+    <border diagonalUp="0" diagonalDown="0">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
+    <border diagonalUp="0" diagonalDown="0">
+      <left style="none">
+        <color rgb="FFC7C7C7"/>
+      </left>
+      <right style="none">
+        <color rgb="FFC7C7C7"/>
+      </right>
+      <top style="none">
+        <color rgb="FFC7C7C7"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FFC7C7C7"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="1">
+    <xf/>
+  </cellStyleXfs>
+  <cellXfs count="62">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="100" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="167" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="100" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="100" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="100" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="100" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="101" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="3" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="3" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F22" activeCellId="0" pane="topLeft" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8941176470588"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.8666666666667"/>
+    <col min="1" max="1" style="1" width="20.89412" bestFit="1" customWidth="1"/>
+    <col min="2" max="1023" style="1" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1025" style="2" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1026" max="16384" style="3"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="28.35" outlineLevel="0" r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:1025" ht="28.35" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.1" outlineLevel="0" r="2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1025" ht="14.1" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9">
         <v>607415</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9">
         <v>17365</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9">
         <v>11481</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9">
         <v>25332</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9">
         <v>9696</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="9">
         <v>11382</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="9">
         <v>5494</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="9">
         <v>1153</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2" s="9">
         <v>171249</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="9">
         <v>16728</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="9">
         <v>11277</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="9">
         <v>16329</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="9">
         <v>13571</v>
       </c>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="9">
         <v>12592</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="P2" s="9">
         <v>14596</v>
       </c>
-      <c r="Q2" s="8" t="n">
+      <c r="Q2" s="9">
         <v>14732</v>
       </c>
-      <c r="R2" s="8" t="n">
+      <c r="R2" s="9">
         <v>4733</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9">
         <v>13722</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9">
         <v>200165</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9">
         <v>4607</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9">
         <v>2244</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9">
         <v>1250</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="9">
         <v>1596</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="9">
         <v>8340</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="9">
         <v>170</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="9">
         <v>11209</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="9">
         <v>1669</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="9">
         <v>1406</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="9">
         <v>2115</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="9">
         <v>1306</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="9">
         <v>2652</v>
       </c>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="9">
         <v>8274</v>
       </c>
-      <c r="Q3" s="8" t="n">
+      <c r="Q3" s="9">
         <v>36582</v>
       </c>
-      <c r="R3" s="8" t="n">
+      <c r="R3" s="9">
         <v>1342</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9">
         <v>7978</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9">
         <v>4018</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9">
         <v>136185</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9">
         <v>1273</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9">
         <v>555</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="9">
         <v>1263</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="9">
         <v>2506</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="9">
         <v>133</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="9">
         <v>7705</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="9">
         <v>1191</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="9">
         <v>1294</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="9">
         <v>1514</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="9">
         <v>669</v>
       </c>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="9">
         <v>707</v>
       </c>
-      <c r="P4" s="8" t="n">
+      <c r="P4" s="9">
         <v>34282</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="9">
         <v>6519</v>
       </c>
-      <c r="R4" s="8" t="n">
+      <c r="R4" s="9">
         <v>472</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9">
         <v>29554</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9">
         <v>2309</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9">
         <v>1523</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9">
         <v>157829</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9">
         <v>1570</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="9">
         <v>1931</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="9">
         <v>808</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="9">
         <v>246</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="9">
         <v>44766</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="9">
         <v>4029</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="9">
         <v>2643</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="M5" s="9">
         <v>5161</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="9">
         <v>2853</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="9">
         <v>2821</v>
       </c>
-      <c r="P5" s="8" t="n">
+      <c r="P5" s="9">
         <v>3020</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="9">
         <v>2423</v>
       </c>
-      <c r="R5" s="8" t="n">
+      <c r="R5" s="9">
         <v>906</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9">
         <v>7847</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9">
         <v>1320</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="9">
         <v>651</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="9">
         <v>1502</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="9">
         <v>92518</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="9">
         <v>897</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="9">
         <v>336</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="9">
         <v>130</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="9">
         <v>7741</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="9">
         <v>603</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="9">
         <v>644</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="9">
         <v>1323</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="9">
         <v>4753</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="O6" s="9">
         <v>29610</v>
       </c>
-      <c r="P6" s="8" t="n">
+      <c r="P6" s="9">
         <v>634</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="9">
         <v>1042</v>
       </c>
-      <c r="R6" s="8" t="n">
+      <c r="R6" s="9">
         <v>510</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9">
         <v>10153</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9">
         <v>1597</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="9">
         <v>1567</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="9">
         <v>1946</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="9">
         <v>1227</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="9">
         <v>84420</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="9">
         <v>598</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="9">
         <v>1866</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="9">
         <v>10413</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="9">
         <v>1767</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="9">
         <v>6370</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="9">
         <v>12538</v>
       </c>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="9">
         <v>3431</v>
       </c>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="9">
         <v>1511</v>
       </c>
-      <c r="P7" s="8" t="n">
+      <c r="P7" s="9">
         <v>2630</v>
       </c>
-      <c r="Q7" s="8" t="n">
+      <c r="Q7" s="9">
         <v>1893</v>
       </c>
-      <c r="R7" s="8" t="n">
+      <c r="R7" s="9">
         <v>398</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9">
         <v>4840</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9">
         <v>9524</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="9">
         <v>3031</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="9">
         <v>834</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="9">
         <v>401</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="9">
         <v>654</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="9">
         <v>64156</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="9">
         <v>63</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="9">
         <v>4317</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="9">
         <v>863</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="9">
         <v>627</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="9">
         <v>867</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="9">
         <v>782</v>
       </c>
-      <c r="O8" s="8" t="n">
+      <c r="O8" s="9">
         <v>795</v>
       </c>
-      <c r="P8" s="8" t="n">
+      <c r="P8" s="9">
         <v>6388</v>
       </c>
-      <c r="Q8" s="8" t="n">
+      <c r="Q8" s="9">
         <v>6572</v>
       </c>
-      <c r="R8" s="8" t="n">
+      <c r="R8" s="9">
         <v>292</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9">
         <v>3724</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9">
         <v>317</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="9">
         <v>312</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="9">
         <v>565</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="9">
         <v>382</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="9">
         <v>6568</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="9">
         <v>104</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="9">
         <v>4683</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="9">
         <v>3865</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="9">
         <v>288</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="9">
         <v>3030</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="9">
         <v>3229</v>
       </c>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="9">
         <v>573</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="9">
         <v>273</v>
       </c>
-      <c r="P9" s="8" t="n">
+      <c r="P9" s="9">
         <v>387</v>
       </c>
-      <c r="Q9" s="8" t="n">
+      <c r="Q9" s="9">
         <v>374</v>
       </c>
-      <c r="R9" s="8" t="n">
+      <c r="R9" s="9">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9">
         <v>210209</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9">
         <v>12507</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="9">
         <v>9587</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="9">
         <v>42781</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="9">
         <v>8849</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="9">
         <v>10779</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="9">
         <v>3938</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="9">
         <v>1356</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="J10" s="9">
         <v>685164</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="9">
         <v>21267</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="9">
         <v>14869</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="M10" s="9">
         <v>23494</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="9">
         <v>14241</v>
       </c>
-      <c r="O10" s="8" t="n">
+      <c r="O10" s="9">
         <v>12558</v>
       </c>
-      <c r="P10" s="8" t="n">
+      <c r="P10" s="9">
         <v>14616</v>
       </c>
-      <c r="Q10" s="8" t="n">
+      <c r="Q10" s="9">
         <v>12296</v>
       </c>
-      <c r="R10" s="8" t="n">
+      <c r="R10" s="9">
         <v>3861</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9">
         <v>16569</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9">
         <v>1658</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="9">
         <v>1436</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="9">
         <v>4185</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="9">
         <v>708</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="9">
         <v>1532</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="9">
         <v>728</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="9">
         <v>147</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="9">
         <v>21887</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="9">
         <v>85850</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="9">
         <v>3445</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="9">
         <v>2136</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="9">
         <v>1220</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="9">
         <v>1106</v>
       </c>
-      <c r="P11" s="8" t="n">
+      <c r="P11" s="9">
         <v>2988</v>
       </c>
-      <c r="Q11" s="8" t="n">
+      <c r="Q11" s="9">
         <v>1853</v>
       </c>
-      <c r="R11" s="8" t="n">
+      <c r="R11" s="9">
         <v>407</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9">
         <v>11298</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="9">
         <v>1514</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="9">
         <v>1508</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="9">
         <v>3175</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="9">
         <v>727</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="9">
         <v>6139</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="9">
         <v>667</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="9">
         <v>1343</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="9">
         <v>16968</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="9">
         <v>3301</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="9">
         <v>79785</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="9">
         <v>4657</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="N12" s="9">
         <v>1695</v>
       </c>
-      <c r="O12" s="8" t="n">
+      <c r="O12" s="9">
         <v>1034</v>
       </c>
-      <c r="P12" s="8" t="n">
+      <c r="P12" s="9">
         <v>3225</v>
       </c>
-      <c r="Q12" s="8" t="n">
+      <c r="Q12" s="9">
         <v>1723</v>
       </c>
-      <c r="R12" s="8" t="n">
+      <c r="R12" s="9">
         <v>409</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9">
         <v>16754</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="9">
         <v>2747</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="9">
         <v>2024</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="9">
         <v>6604</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="9">
         <v>1669</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="9">
         <v>12309</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="9">
         <v>1046</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="9">
         <v>1621</v>
       </c>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="9">
         <v>26494</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="9">
         <v>2450</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="9">
         <v>4790</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="9">
         <v>96124</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="N13" s="9">
         <v>4669</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="O13" s="9">
         <v>2450</v>
       </c>
-      <c r="P13" s="8" t="n">
+      <c r="P13" s="9">
         <v>3345</v>
       </c>
-      <c r="Q13" s="8" t="n">
+      <c r="Q13" s="9">
         <v>2665</v>
       </c>
-      <c r="R13" s="8" t="n">
+      <c r="R13" s="9">
         <v>574</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9">
         <v>11651</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="9">
         <v>1278</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="9">
         <v>761</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="9">
         <v>2789</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="9">
         <v>4308</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="9">
         <v>3033</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="9">
         <v>750</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="9">
         <v>245</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="9">
         <v>14186</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="9">
         <v>1054</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="9">
         <v>1321</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="9">
         <v>4061</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="9">
         <v>120706</v>
       </c>
-      <c r="O14" s="8" t="n">
+      <c r="O14" s="9">
         <v>4289</v>
       </c>
-      <c r="P14" s="8" t="n">
+      <c r="P14" s="9">
         <v>1090</v>
       </c>
-      <c r="Q14" s="8" t="n">
+      <c r="Q14" s="9">
         <v>1660</v>
       </c>
-      <c r="R14" s="8" t="n">
+      <c r="R14" s="9">
         <v>458</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9">
         <v>11719</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="9">
         <v>2601</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="9">
         <v>778</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="9">
         <v>2892</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="9">
         <v>28347</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="9">
         <v>1284</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="9">
         <v>759</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="9">
         <v>131</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="9">
         <v>12863</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="9">
         <v>1039</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="9">
         <v>913</v>
       </c>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="9">
         <v>1971</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="9">
         <v>4374</v>
       </c>
-      <c r="O15" s="8" t="n">
+      <c r="O15" s="9">
         <v>95063</v>
       </c>
-      <c r="P15" s="8" t="n">
+      <c r="P15" s="9">
         <v>1311</v>
       </c>
-      <c r="Q15" s="8" t="n">
+      <c r="Q15" s="9">
         <v>3489</v>
       </c>
-      <c r="R15" s="8" t="n">
+      <c r="R15" s="9">
         <v>711</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="16">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9">
         <v>11807</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="9">
         <v>8348</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="9">
         <v>38037</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="9">
         <v>2960</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="9">
         <v>772</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="9">
         <v>2131</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="9">
         <v>5887</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="9">
         <v>200</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="9">
         <v>13912</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="9">
         <v>3019</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="9">
         <v>2775</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="9">
         <v>2617</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="9">
         <v>1186</v>
       </c>
-      <c r="O16" s="8" t="n">
+      <c r="O16" s="9">
         <v>1371</v>
       </c>
-      <c r="P16" s="8" t="n">
+      <c r="P16" s="9">
         <v>123881</v>
       </c>
-      <c r="Q16" s="8" t="n">
+      <c r="Q16" s="9">
         <v>7379</v>
       </c>
-      <c r="R16" s="8" t="n">
+      <c r="R16" s="9">
         <v>549</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9">
         <v>11948</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="9">
         <v>41667</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="9">
         <v>7109</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="9">
         <v>2474</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="9">
         <v>1295</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="9">
         <v>1767</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="9">
         <v>6146</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="9">
         <v>173</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="9">
         <v>11801</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="9">
         <v>1906</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="9">
         <v>1493</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="9">
         <v>2227</v>
       </c>
-      <c r="N17" s="8" t="n">
+      <c r="N17" s="9">
         <v>1732</v>
       </c>
-      <c r="O17" s="8" t="n">
+      <c r="O17" s="9">
         <v>3257</v>
       </c>
-      <c r="P17" s="8" t="n">
+      <c r="P17" s="9">
         <v>7156</v>
       </c>
-      <c r="Q17" s="8" t="n">
+      <c r="Q17" s="9">
         <v>181130</v>
       </c>
-      <c r="R17" s="8" t="n">
+      <c r="R17" s="9">
         <v>920</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="18">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="9">
         <v>6687</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="9">
         <v>1640</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="9">
         <v>782</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="9">
         <v>1346</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="9">
         <v>734</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="9">
         <v>500</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="9">
         <v>357</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="9">
         <v>49</v>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="9">
         <v>6177</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="9">
         <v>608</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="9">
         <v>582</v>
       </c>
-      <c r="M18" s="8" t="n">
+      <c r="M18" s="9">
         <v>672</v>
       </c>
-      <c r="N18" s="8" t="n">
+      <c r="N18" s="9">
         <v>599</v>
       </c>
-      <c r="O18" s="8" t="n">
+      <c r="O18" s="9">
         <v>855</v>
       </c>
-      <c r="P18" s="8" t="n">
+      <c r="P18" s="9">
         <v>718</v>
       </c>
-      <c r="Q18" s="8" t="n">
+      <c r="Q18" s="9">
         <v>1249</v>
       </c>
-      <c r="R18" s="8" t="n">
+      <c r="R18" s="9">
         <v>34142</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
+  <pageMargins left="0.7875" right="0.7875" top="1.053" bottom="1.053" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A25" activeCellId="0" pane="topLeft" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8941176470588"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.8666666666667"/>
+    <col min="1" max="1" style="10" width="20.89412" bestFit="1" customWidth="1"/>
+    <col min="2" max="1023" style="10" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1025" style="11" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1026" max="16384" style="12"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="28.35" outlineLevel="0" r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:1025" ht="28.35" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.1" outlineLevel="0" r="2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1025" ht="14.1" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="18">
         <v>588651</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="18">
         <v>16571</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="18">
         <v>11203</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="18">
         <v>24256</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="18">
         <v>9142</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="18">
         <v>11169</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="18">
         <v>5339</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="18">
         <v>902</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2" s="18">
         <v>167786</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="18">
         <v>16414</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="18">
         <v>11016</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="18">
         <v>15867</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="18">
         <v>13273</v>
       </c>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="18">
         <v>12528</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="P2" s="18">
         <v>14278</v>
       </c>
-      <c r="Q2" s="8" t="n">
+      <c r="Q2" s="18">
         <v>14206</v>
       </c>
-      <c r="R2" s="8" t="n">
+      <c r="R2" s="18">
         <v>4424</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="18">
         <v>12745</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="18">
         <v>199963</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="18">
         <v>4088</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="18">
         <v>1951</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="18">
         <v>896</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="18">
         <v>1393</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="18">
         <v>7627</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="18">
         <v>124</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="18">
         <v>10101</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="18">
         <v>1480</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="18">
         <v>1154</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="18">
         <v>1739</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="18">
         <v>1181</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="18">
         <v>2479</v>
       </c>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="18">
         <v>7296</v>
       </c>
-      <c r="Q3" s="8" t="n">
+      <c r="Q3" s="18">
         <v>32825</v>
       </c>
-      <c r="R3" s="8" t="n">
+      <c r="R3" s="18">
         <v>1234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="18">
         <v>8236</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="18">
         <v>3794</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="18">
         <v>136714</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="18">
         <v>1320</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="18">
         <v>450</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="18">
         <v>1224</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="18">
         <v>2436</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="18">
         <v>83</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="18">
         <v>7818</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="18">
         <v>1252</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="18">
         <v>1237</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="18">
         <v>1403</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="18">
         <v>743</v>
       </c>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="18">
         <v>736</v>
       </c>
-      <c r="P4" s="8" t="n">
+      <c r="P4" s="18">
         <v>30601</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="18">
         <v>6539</v>
       </c>
-      <c r="R4" s="8" t="n">
+      <c r="R4" s="18">
         <v>457</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="18">
         <v>31430</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="18">
         <v>2253</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="18">
         <v>1640</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="18">
         <v>157460</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="18">
         <v>1588</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="18">
         <v>1913</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="18">
         <v>783</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="18">
         <v>226</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="18">
         <v>46018</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="18">
         <v>3882</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="18">
         <v>2622</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="M5" s="18">
         <v>5069</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="18">
         <v>2943</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="18">
         <v>2789</v>
       </c>
-      <c r="P5" s="8" t="n">
+      <c r="P5" s="18">
         <v>2873</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="18">
         <v>2480</v>
       </c>
-      <c r="R5" s="8" t="n">
+      <c r="R5" s="18">
         <v>870</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="18">
         <v>7224</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="18">
         <v>839</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="18">
         <v>436</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="18">
         <v>1391</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="18">
         <v>87561</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="18">
         <v>882</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="18">
         <v>278</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="18">
         <v>89</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="18">
         <v>7170</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="18">
         <v>591</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="18">
         <v>513</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="18">
         <v>1043</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="18">
         <v>4348</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="O6" s="18">
         <v>26631</v>
       </c>
-      <c r="P6" s="8" t="n">
+      <c r="P6" s="18">
         <v>588</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="18">
         <v>998</v>
       </c>
-      <c r="R6" s="8" t="n">
+      <c r="R6" s="18">
         <v>566</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="18">
         <v>9971</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="18">
         <v>1602</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="18">
         <v>1565</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="18">
         <v>1907</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="18">
         <v>1124</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="18">
         <v>81424</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="18">
         <v>596</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="18">
         <v>1580</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="18">
         <v>10463</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="18">
         <v>1699</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="18">
         <v>6150</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="18">
         <v>12143</v>
       </c>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="18">
         <v>3373</v>
       </c>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="18">
         <v>1383</v>
       </c>
-      <c r="P7" s="8" t="n">
+      <c r="P7" s="18">
         <v>2591</v>
       </c>
-      <c r="Q7" s="8" t="n">
+      <c r="Q7" s="18">
         <v>2002</v>
       </c>
-      <c r="R7" s="8" t="n">
+      <c r="R7" s="18">
         <v>357</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="18">
         <v>4462</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="18">
         <v>8907</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="18">
         <v>2973</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="18">
         <v>935</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="18">
         <v>360</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="18">
         <v>624</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="18">
         <v>57107</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="18">
         <v>55</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="18">
         <v>4193</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="18">
         <v>819</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="18">
         <v>791</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="18">
         <v>922</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="18">
         <v>804</v>
       </c>
-      <c r="O8" s="8" t="n">
+      <c r="O8" s="18">
         <v>809</v>
       </c>
-      <c r="P8" s="8" t="n">
+      <c r="P8" s="18">
         <v>5949</v>
       </c>
-      <c r="Q8" s="8" t="n">
+      <c r="Q8" s="18">
         <v>6387</v>
       </c>
-      <c r="R8" s="8" t="n">
+      <c r="R8" s="18">
         <v>283</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="18">
         <v>1760</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="18">
         <v>182</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="18">
         <v>163</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="18">
         <v>381</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="18">
         <v>157</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="18">
         <v>2461</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="18">
         <v>58</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="18">
         <v>2164</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="18">
         <v>2225</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="18">
         <v>176</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="18">
         <v>1704</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="18">
         <v>1802</v>
       </c>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="18">
         <v>319</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="18">
         <v>189</v>
       </c>
-      <c r="P9" s="8" t="n">
+      <c r="P9" s="18">
         <v>242</v>
       </c>
-      <c r="Q9" s="8" t="n">
+      <c r="Q9" s="18">
         <v>195</v>
       </c>
-      <c r="R9" s="8" t="n">
+      <c r="R9" s="18">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="18">
         <v>211536</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="18">
         <v>12079</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="18">
         <v>10088</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="18">
         <v>40962</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="18">
         <v>8134</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="18">
         <v>10815</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="18">
         <v>4206</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="18">
         <v>1143</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="J10" s="18">
         <v>677365</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="18">
         <v>20287</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="18">
         <v>14750</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="M10" s="18">
         <v>22796</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="18">
         <v>14059</v>
       </c>
-      <c r="O10" s="8" t="n">
+      <c r="O10" s="18">
         <v>12543</v>
       </c>
-      <c r="P10" s="8" t="n">
+      <c r="P10" s="18">
         <v>14925</v>
       </c>
-      <c r="Q10" s="8" t="n">
+      <c r="Q10" s="18">
         <v>12057</v>
       </c>
-      <c r="R10" s="8" t="n">
+      <c r="R10" s="18">
         <v>3578</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="18">
         <v>16115</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="18">
         <v>1673</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="18">
         <v>1399</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="18">
         <v>4180</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="18">
         <v>670</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="18">
         <v>1654</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="18">
         <v>687</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="18">
         <v>146</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="18">
         <v>21660</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="18">
         <v>81214</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="18">
         <v>3140</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="18">
         <v>2044</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="18">
         <v>1142</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="18">
         <v>1066</v>
       </c>
-      <c r="P11" s="8" t="n">
+      <c r="P11" s="18">
         <v>2980</v>
       </c>
-      <c r="Q11" s="8" t="n">
+      <c r="Q11" s="18">
         <v>1932</v>
       </c>
-      <c r="R11" s="8" t="n">
+      <c r="R11" s="18">
         <v>402</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="18">
         <v>10897</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="18">
         <v>1355</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="18">
         <v>1474</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="18">
         <v>3050</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="18">
         <v>607</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="18">
         <v>6027</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="18">
         <v>629</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="18">
         <v>1273</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="18">
         <v>16389</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="18">
         <v>3201</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="18">
         <v>80062</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="18">
         <v>4257</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="N12" s="18">
         <v>1521</v>
       </c>
-      <c r="O12" s="8" t="n">
+      <c r="O12" s="18">
         <v>921</v>
       </c>
-      <c r="P12" s="8" t="n">
+      <c r="P12" s="18">
         <v>3064</v>
       </c>
-      <c r="Q12" s="8" t="n">
+      <c r="Q12" s="18">
         <v>1542</v>
       </c>
-      <c r="R12" s="8" t="n">
+      <c r="R12" s="18">
         <v>334</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="18">
         <v>16337</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="18">
         <v>2296</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="18">
         <v>1928</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="18">
         <v>6293</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="18">
         <v>1422</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="18">
         <v>12217</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="18">
         <v>992</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="18">
         <v>1465</v>
       </c>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="18">
         <v>25386</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="18">
         <v>2359</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="18">
         <v>4479</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="18">
         <v>92083</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="N13" s="18">
         <v>4607</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="O13" s="18">
         <v>2607</v>
       </c>
-      <c r="P13" s="8" t="n">
+      <c r="P13" s="18">
         <v>3290</v>
       </c>
-      <c r="Q13" s="8" t="n">
+      <c r="Q13" s="18">
         <v>2534</v>
       </c>
-      <c r="R13" s="8" t="n">
+      <c r="R13" s="18">
         <v>514</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="18">
         <v>11868</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="18">
         <v>1180</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="18">
         <v>742</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="18">
         <v>2662</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="18">
         <v>4085</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="18">
         <v>2784</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="18">
         <v>769</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="18">
         <v>194</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="18">
         <v>13287</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="18">
         <v>1122</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="18">
         <v>1324</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="18">
         <v>4016</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="18">
         <v>114541</v>
       </c>
-      <c r="O14" s="8" t="n">
+      <c r="O14" s="18">
         <v>4234</v>
       </c>
-      <c r="P14" s="8" t="n">
+      <c r="P14" s="18">
         <v>1098</v>
       </c>
-      <c r="Q14" s="8" t="n">
+      <c r="Q14" s="18">
         <v>1607</v>
       </c>
-      <c r="R14" s="8" t="n">
+      <c r="R14" s="18">
         <v>393</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="18">
         <v>11401</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="18">
         <v>2584</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="18">
         <v>719</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="18">
         <v>2800</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="18">
         <v>25403</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="18">
         <v>1257</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="18">
         <v>717</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="18">
         <v>102</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="18">
         <v>12372</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="18">
         <v>991</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="18">
         <v>894</v>
       </c>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="18">
         <v>1902</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="18">
         <v>4203</v>
       </c>
-      <c r="O15" s="8" t="n">
+      <c r="O15" s="18">
         <v>90453</v>
       </c>
-      <c r="P15" s="8" t="n">
+      <c r="P15" s="18">
         <v>1197</v>
       </c>
-      <c r="Q15" s="8" t="n">
+      <c r="Q15" s="18">
         <v>3262</v>
       </c>
-      <c r="R15" s="8" t="n">
+      <c r="R15" s="18">
         <v>742</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="16">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="18">
         <v>11758</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="18">
         <v>7783</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="18">
         <v>32480</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="18">
         <v>2861</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="18">
         <v>664</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="18">
         <v>2128</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="18">
         <v>5761</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="18">
         <v>164</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="18">
         <v>13754</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="18">
         <v>2912</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="18">
         <v>2828</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="18">
         <v>2407</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="18">
         <v>1191</v>
       </c>
-      <c r="O16" s="8" t="n">
+      <c r="O16" s="18">
         <v>1341</v>
       </c>
-      <c r="P16" s="8" t="n">
+      <c r="P16" s="18">
         <v>122276</v>
       </c>
-      <c r="Q16" s="8" t="n">
+      <c r="Q16" s="18">
         <v>7371</v>
       </c>
-      <c r="R16" s="8" t="n">
+      <c r="R16" s="18">
         <v>570</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="18">
         <v>11487</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="18">
         <v>38818</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="18">
         <v>6729</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="18">
         <v>2363</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="18">
         <v>1109</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="18">
         <v>1707</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="18">
         <v>5707</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="18">
         <v>146</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="18">
         <v>11351</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="18">
         <v>1772</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="18">
         <v>1488</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="18">
         <v>2034</v>
       </c>
-      <c r="N17" s="8" t="n">
+      <c r="N17" s="18">
         <v>1642</v>
       </c>
-      <c r="O17" s="8" t="n">
+      <c r="O17" s="18">
         <v>3131</v>
       </c>
-      <c r="P17" s="8" t="n">
+      <c r="P17" s="18">
         <v>6932</v>
       </c>
-      <c r="Q17" s="8" t="n">
+      <c r="Q17" s="18">
         <v>168783</v>
       </c>
-      <c r="R17" s="8" t="n">
+      <c r="R17" s="18">
         <v>959</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="18">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="18">
         <v>5731</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="18">
         <v>1518</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="18">
         <v>645</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="18">
         <v>1170</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="18">
         <v>580</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="18">
         <v>477</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="18">
         <v>298</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="18">
         <v>28</v>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="18">
         <v>5135</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="18">
         <v>491</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="18">
         <v>477</v>
       </c>
-      <c r="M18" s="8" t="n">
+      <c r="M18" s="18">
         <v>629</v>
       </c>
-      <c r="N18" s="8" t="n">
+      <c r="N18" s="18">
         <v>544</v>
       </c>
-      <c r="O18" s="8" t="n">
+      <c r="O18" s="18">
         <v>815</v>
       </c>
-      <c r="P18" s="8" t="n">
+      <c r="P18" s="18">
         <v>659</v>
       </c>
-      <c r="Q18" s="8" t="n">
+      <c r="Q18" s="18">
         <v>1091</v>
       </c>
-      <c r="R18" s="8" t="n">
+      <c r="R18" s="18">
         <v>33268</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
+  <pageMargins left="0.7875" right="0.7875" top="1.053" bottom="1.053" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I14" activeCellId="0" pane="topLeft" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8941176470588"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.8666666666667"/>
+    <col min="1" max="1" style="19" width="20.89412" bestFit="1" customWidth="1"/>
+    <col min="2" max="1023" style="19" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1025" style="20" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1026" max="16384" style="21"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="28.35" outlineLevel="0" r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:1025" ht="28.35" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.1" outlineLevel="0" r="2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1025" ht="14.1" customHeight="1">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="27">
         <v>597356</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="27">
         <v>17965</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="27">
         <v>11495</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="27">
         <v>23732</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="27">
         <v>9824</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="27">
         <v>11460</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="27">
         <v>5624</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="27">
         <v>832</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2" s="27">
         <v>173395</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="27">
         <v>17363</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="27">
         <v>11338</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="27">
         <v>16603</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="27">
         <v>14600</v>
       </c>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="27">
         <v>13529</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="P2" s="27">
         <v>15067</v>
       </c>
-      <c r="Q2" s="8" t="n">
+      <c r="Q2" s="27">
         <v>15193</v>
       </c>
-      <c r="R2" s="8" t="n">
+      <c r="R2" s="27">
         <v>4568</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="27">
         <v>12766</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="27">
         <v>191552</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="27">
         <v>3897</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="27">
         <v>1985</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="27">
         <v>1069</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="27">
         <v>1430</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="27">
         <v>7052</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="27">
         <v>108</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="27">
         <v>10466</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="27">
         <v>1645</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="27">
         <v>1164</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="27">
         <v>1783</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="27">
         <v>1221</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="27">
         <v>2525</v>
       </c>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="27">
         <v>7449</v>
       </c>
-      <c r="Q3" s="8" t="n">
+      <c r="Q3" s="27">
         <v>33523</v>
       </c>
-      <c r="R3" s="8" t="n">
+      <c r="R3" s="27">
         <v>1206</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="27">
         <v>7938</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="27">
         <v>3939</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="27">
         <v>134009</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="27">
         <v>1253</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="27">
         <v>464</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="27">
         <v>1188</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="27">
         <v>2276</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="27">
         <v>70</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="27">
         <v>7778</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="27">
         <v>1343</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="27">
         <v>1188</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="27">
         <v>1299</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="27">
         <v>776</v>
       </c>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="27">
         <v>658</v>
       </c>
-      <c r="P4" s="8" t="n">
+      <c r="P4" s="27">
         <v>31151</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="27">
         <v>6496</v>
       </c>
-      <c r="R4" s="8" t="n">
+      <c r="R4" s="27">
         <v>483</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="27">
         <v>32504</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="27">
         <v>2391</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="27">
         <v>1490</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="27">
         <v>157740</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="27">
         <v>1639</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="27">
         <v>2073</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="27">
         <v>795</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="27">
         <v>189</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="27">
         <v>46718</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="27">
         <v>4123</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="27">
         <v>2684</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="M5" s="27">
         <v>5315</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="27">
         <v>3154</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="27">
         <v>3017</v>
       </c>
-      <c r="P5" s="8" t="n">
+      <c r="P5" s="27">
         <v>3055</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="27">
         <v>2580</v>
       </c>
-      <c r="R5" s="8" t="n">
+      <c r="R5" s="27">
         <v>818</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="27">
         <v>8071</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="27">
         <v>1072</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="27">
         <v>512</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="27">
         <v>1416</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="27">
         <v>86488</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="27">
         <v>838</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="27">
         <v>296</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="27">
         <v>67</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="27">
         <v>8131</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="27">
         <v>618</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="27">
         <v>563</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="27">
         <v>1089</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="27">
         <v>4401</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="O6" s="27">
         <v>27741</v>
       </c>
-      <c r="P6" s="8" t="n">
+      <c r="P6" s="27">
         <v>595</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="27">
         <v>1141</v>
       </c>
-      <c r="R6" s="8" t="n">
+      <c r="R6" s="27">
         <v>580</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="27">
         <v>10375</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="27">
         <v>1755</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="27">
         <v>1476</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="27">
         <v>2042</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="27">
         <v>1107</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="27">
         <v>82847</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="27">
         <v>642</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="27">
         <v>1582</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="27">
         <v>11124</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="27">
         <v>1887</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="27">
         <v>6392</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="27">
         <v>12893</v>
       </c>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="27">
         <v>3498</v>
       </c>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="27">
         <v>1517</v>
       </c>
-      <c r="P7" s="8" t="n">
+      <c r="P7" s="27">
         <v>2732</v>
       </c>
-      <c r="Q7" s="8" t="n">
+      <c r="Q7" s="27">
         <v>1976</v>
       </c>
-      <c r="R7" s="8" t="n">
+      <c r="R7" s="27">
         <v>339</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="27">
         <v>4564</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="27">
         <v>8815</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="27">
         <v>3017</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="27">
         <v>839</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="27">
         <v>467</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="27">
         <v>669</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="27">
         <v>57890</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="27">
         <v>51</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="27">
         <v>4118</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="27">
         <v>915</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="27">
         <v>679</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="27">
         <v>833</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="27">
         <v>795</v>
       </c>
-      <c r="O8" s="8" t="n">
+      <c r="O8" s="27">
         <v>784</v>
       </c>
-      <c r="P8" s="8" t="n">
+      <c r="P8" s="27">
         <v>6287</v>
       </c>
-      <c r="Q8" s="8" t="n">
+      <c r="Q8" s="27">
         <v>6300</v>
       </c>
-      <c r="R8" s="8" t="n">
+      <c r="R8" s="27">
         <v>305</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="27">
         <v>1709</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="27">
         <v>257</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="27">
         <v>164</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="27">
         <v>359</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="27">
         <v>150</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="27">
         <v>4244</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="27">
         <v>40</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="27">
         <v>2305</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="27">
         <v>2621</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="27">
         <v>194</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="27">
         <v>1716</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="27">
         <v>2492</v>
       </c>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="27">
         <v>330</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="27">
         <v>170</v>
       </c>
-      <c r="P9" s="8" t="n">
+      <c r="P9" s="27">
         <v>233</v>
       </c>
-      <c r="Q9" s="8" t="n">
+      <c r="Q9" s="27">
         <v>209</v>
       </c>
-      <c r="R9" s="8" t="n">
+      <c r="R9" s="27">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="27">
         <v>220316</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="27">
         <v>13299</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="27">
         <v>10035</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="27">
         <v>42276</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="27">
         <v>9056</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="27">
         <v>11016</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="27">
         <v>4186</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="27">
         <v>1053</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="J10" s="27">
         <v>689348</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="27">
         <v>21983</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="27">
         <v>15185</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="M10" s="27">
         <v>23962</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="27">
         <v>15978</v>
       </c>
-      <c r="O10" s="8" t="n">
+      <c r="O10" s="27">
         <v>13950</v>
       </c>
-      <c r="P10" s="8" t="n">
+      <c r="P10" s="27">
         <v>16060</v>
       </c>
-      <c r="Q10" s="8" t="n">
+      <c r="Q10" s="27">
         <v>13114</v>
       </c>
-      <c r="R10" s="8" t="n">
+      <c r="R10" s="27">
         <v>3522</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="27">
         <v>17200</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="27">
         <v>1695</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="27">
         <v>1345</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="27">
         <v>4059</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="27">
         <v>648</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="27">
         <v>1513</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="27">
         <v>736</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="27">
         <v>128</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="27">
         <v>22644</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="27">
         <v>83740</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="27">
         <v>3166</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="27">
         <v>2141</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="27">
         <v>1124</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="27">
         <v>1023</v>
       </c>
-      <c r="P11" s="8" t="n">
+      <c r="P11" s="27">
         <v>2971</v>
       </c>
-      <c r="Q11" s="8" t="n">
+      <c r="Q11" s="27">
         <v>2013</v>
       </c>
-      <c r="R11" s="8" t="n">
+      <c r="R11" s="27">
         <v>366</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="27">
         <v>11210</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="27">
         <v>1380</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="27">
         <v>1419</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="27">
         <v>2974</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="27">
         <v>661</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="27">
         <v>5975</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="27">
         <v>625</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="27">
         <v>1304</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="27">
         <v>16678</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="27">
         <v>3367</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="27">
         <v>77269</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="27">
         <v>4418</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="N12" s="27">
         <v>1512</v>
       </c>
-      <c r="O12" s="8" t="n">
+      <c r="O12" s="27">
         <v>1044</v>
       </c>
-      <c r="P12" s="8" t="n">
+      <c r="P12" s="27">
         <v>3201</v>
       </c>
-      <c r="Q12" s="8" t="n">
+      <c r="Q12" s="27">
         <v>1644</v>
       </c>
-      <c r="R12" s="8" t="n">
+      <c r="R12" s="27">
         <v>357</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="27">
         <v>17061</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="27">
         <v>2588</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="27">
         <v>1990</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="27">
         <v>6235</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="27">
         <v>1388</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="27">
         <v>12274</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="27">
         <v>1004</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="27">
         <v>1394</v>
       </c>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="27">
         <v>26258</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="27">
         <v>2446</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="27">
         <v>4557</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="27">
         <v>92240</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="N13" s="27">
         <v>4595</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="O13" s="27">
         <v>2479</v>
       </c>
-      <c r="P13" s="8" t="n">
+      <c r="P13" s="27">
         <v>3479</v>
       </c>
-      <c r="Q13" s="8" t="n">
+      <c r="Q13" s="27">
         <v>2698</v>
       </c>
-      <c r="R13" s="8" t="n">
+      <c r="R13" s="27">
         <v>517</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="27">
         <v>12860</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="27">
         <v>1365</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="27">
         <v>693</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="27">
         <v>2927</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="27">
         <v>4487</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="27">
         <v>2928</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="27">
         <v>655</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="27">
         <v>153</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="27">
         <v>14560</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="27">
         <v>1103</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="27">
         <v>1317</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="27">
         <v>4060</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="27">
         <v>121213</v>
       </c>
-      <c r="O14" s="8" t="n">
+      <c r="O14" s="27">
         <v>4389</v>
       </c>
-      <c r="P14" s="8" t="n">
+      <c r="P14" s="27">
         <v>1124</v>
       </c>
-      <c r="Q14" s="8" t="n">
+      <c r="Q14" s="27">
         <v>1628</v>
       </c>
-      <c r="R14" s="8" t="n">
+      <c r="R14" s="27">
         <v>417</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="27">
         <v>11960</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="27">
         <v>2643</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="27">
         <v>759</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="27">
         <v>2864</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="27">
         <v>25948</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="27">
         <v>1237</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="27">
         <v>685</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="27">
         <v>118</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="27">
         <v>12894</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="27">
         <v>1042</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="27">
         <v>900</v>
       </c>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="27">
         <v>1979</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="27">
         <v>4117</v>
       </c>
-      <c r="O15" s="8" t="n">
+      <c r="O15" s="27">
         <v>88671</v>
       </c>
-      <c r="P15" s="8" t="n">
+      <c r="P15" s="27">
         <v>1309</v>
       </c>
-      <c r="Q15" s="8" t="n">
+      <c r="Q15" s="27">
         <v>3444</v>
       </c>
-      <c r="R15" s="8" t="n">
+      <c r="R15" s="27">
         <v>717</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="16">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="27">
         <v>12206</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="27">
         <v>8120</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="27">
         <v>32453</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="27">
         <v>3006</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="27">
         <v>685</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="27">
         <v>2165</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="27">
         <v>5739</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="27">
         <v>150</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="27">
         <v>14419</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="27">
         <v>3087</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="27">
         <v>2845</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="27">
         <v>2487</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="27">
         <v>1224</v>
       </c>
-      <c r="O16" s="8" t="n">
+      <c r="O16" s="27">
         <v>1327</v>
       </c>
-      <c r="P16" s="8" t="n">
+      <c r="P16" s="27">
         <v>123000</v>
       </c>
-      <c r="Q16" s="8" t="n">
+      <c r="Q16" s="27">
         <v>7701</v>
       </c>
-      <c r="R16" s="8" t="n">
+      <c r="R16" s="27">
         <v>528</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="27">
         <v>11702</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="27">
         <v>38398</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="27">
         <v>6877</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="27">
         <v>2330</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="27">
         <v>1105</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="27">
         <v>1691</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="27">
         <v>5528</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="27">
         <v>136</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="27">
         <v>11695</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="27">
         <v>1897</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="27">
         <v>1533</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="27">
         <v>2196</v>
       </c>
-      <c r="N17" s="8" t="n">
+      <c r="N17" s="27">
         <v>1684</v>
       </c>
-      <c r="O17" s="8" t="n">
+      <c r="O17" s="27">
         <v>3271</v>
       </c>
-      <c r="P17" s="8" t="n">
+      <c r="P17" s="27">
         <v>7149</v>
       </c>
-      <c r="Q17" s="8" t="n">
+      <c r="Q17" s="27">
         <v>166332</v>
       </c>
-      <c r="R17" s="8" t="n">
+      <c r="R17" s="27">
         <v>901</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="18">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="27">
         <v>5225</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="27">
         <v>1497</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="27">
         <v>575</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="27">
         <v>1025</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="27">
         <v>588</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="27">
         <v>394</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="27">
         <v>307</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="27">
         <v>26</v>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="27">
         <v>4530</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="27">
         <v>438</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="27">
         <v>395</v>
       </c>
-      <c r="M18" s="8" t="n">
+      <c r="M18" s="27">
         <v>560</v>
       </c>
-      <c r="N18" s="8" t="n">
+      <c r="N18" s="27">
         <v>485</v>
       </c>
-      <c r="O18" s="8" t="n">
+      <c r="O18" s="27">
         <v>756</v>
       </c>
-      <c r="P18" s="8" t="n">
+      <c r="P18" s="27">
         <v>614</v>
       </c>
-      <c r="Q18" s="8" t="n">
+      <c r="Q18" s="27">
         <v>1002</v>
       </c>
-      <c r="R18" s="8" t="n">
+      <c r="R18" s="27">
         <v>30945</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
+  <pageMargins left="0.7875" right="0.7875" top="1.053" bottom="1.053" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="E1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="R9" activeCellId="0" pane="topLeft" sqref="R9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8941176470588"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.8666666666667"/>
+    <col min="1" max="1" style="28" width="20.89412" bestFit="1" customWidth="1"/>
+    <col min="2" max="1023" style="28" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1025" style="29" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1026" max="16384" style="30"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="28.35" outlineLevel="0" r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:1025" ht="28.35" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.1" outlineLevel="0" r="2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1025" ht="14.1" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="36">
         <v>657628</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="36">
         <v>18886</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="36">
         <v>10900</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="36">
         <v>24219</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="36">
         <v>9749</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="36">
         <v>11306</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="36">
         <v>5152</v>
       </c>
-      <c r="I2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="n">
+      <c r="I2" s="36">
+        <v>0</v>
+      </c>
+      <c r="J2" s="36">
         <v>182454</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="36">
         <v>17224</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="36">
         <v>11304</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="36">
         <v>17399</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="36">
         <v>14555</v>
       </c>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="36">
         <v>13791</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="P2" s="36">
         <v>14566</v>
       </c>
-      <c r="Q2" s="8" t="n">
+      <c r="Q2" s="36">
         <v>15101</v>
       </c>
-      <c r="R2" s="8" t="n">
+      <c r="R2" s="36">
         <v>4289</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="36">
         <v>14814</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="36">
         <v>205228</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="36">
         <v>3622</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="36">
         <v>2302</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="36">
         <v>919</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="36">
         <v>1459</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="36">
         <v>7262</v>
       </c>
-      <c r="I3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="n">
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36">
         <v>12782</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="36">
         <v>1673</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="36">
         <v>1186</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="36">
         <v>2093</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="36">
         <v>1323</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="36">
         <v>2461</v>
       </c>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="36">
         <v>7089</v>
       </c>
-      <c r="Q3" s="8" t="n">
+      <c r="Q3" s="36">
         <v>36407</v>
       </c>
-      <c r="R3" s="8" t="n">
+      <c r="R3" s="36">
         <v>1241</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="36">
         <v>8051</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="36">
         <v>3679</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="36">
         <v>142913</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="36">
         <v>1172</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="36">
         <v>399</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="36">
         <v>1242</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="36">
         <v>2085</v>
       </c>
-      <c r="I4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="n">
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="36">
         <v>7761</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="36">
         <v>1204</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="36">
         <v>1106</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="36">
         <v>1455</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="36">
         <v>613</v>
       </c>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="36">
         <v>661</v>
       </c>
-      <c r="P4" s="8" t="n">
+      <c r="P4" s="36">
         <v>30951</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="36">
         <v>6401</v>
       </c>
-      <c r="R4" s="8" t="n">
+      <c r="R4" s="36">
         <v>452</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="36">
         <v>33008</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="36">
         <v>2667</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="36">
         <v>1436</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="36">
         <v>167834</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="36">
         <v>1585</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="36">
         <v>1937</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="36">
         <v>679</v>
       </c>
-      <c r="I5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="n">
+      <c r="I5" s="36">
+        <v>0</v>
+      </c>
+      <c r="J5" s="36">
         <v>46505</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="36">
         <v>3680</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="36">
         <v>2496</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="M5" s="36">
         <v>5419</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="36">
         <v>3059</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="36">
         <v>3034</v>
       </c>
-      <c r="P5" s="8" t="n">
+      <c r="P5" s="36">
         <v>3038</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="36">
         <v>2387</v>
       </c>
-      <c r="R5" s="8" t="n">
+      <c r="R5" s="36">
         <v>756</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="36">
         <v>8198</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="36">
         <v>995</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="36">
         <v>404</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="36">
         <v>1436</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="36">
         <v>98069</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="36">
         <v>867</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="36">
         <v>243</v>
       </c>
-      <c r="I6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="n">
+      <c r="I6" s="36">
+        <v>0</v>
+      </c>
+      <c r="J6" s="36">
         <v>8188</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="36">
         <v>607</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="36">
         <v>602</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="36">
         <v>1181</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="36">
         <v>4644</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="O6" s="36">
         <v>29920</v>
       </c>
-      <c r="P6" s="8" t="n">
+      <c r="P6" s="36">
         <v>589</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="36">
         <v>1054</v>
       </c>
-      <c r="R6" s="8" t="n">
+      <c r="R6" s="36">
         <v>547</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="36">
         <v>10231</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="36">
         <v>1793</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="36">
         <v>1467</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="36">
         <v>1982</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="36">
         <v>1193</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="36">
         <v>91011</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="36">
         <v>593</v>
       </c>
-      <c r="I7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="n">
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36">
         <v>10772</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="36">
         <v>1846</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="36">
         <v>6529</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="36">
         <v>15233</v>
       </c>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="36">
         <v>3698</v>
       </c>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="36">
         <v>1507</v>
       </c>
-      <c r="P7" s="8" t="n">
+      <c r="P7" s="36">
         <v>2662</v>
       </c>
-      <c r="Q7" s="8" t="n">
+      <c r="Q7" s="36">
         <v>2062</v>
       </c>
-      <c r="R7" s="8" t="n">
+      <c r="R7" s="36">
         <v>311</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="36">
         <v>4123</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="36">
         <v>8863</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="36">
         <v>2712</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="36">
         <v>794</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="36">
         <v>330</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="36">
         <v>545</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="36">
         <v>58189</v>
       </c>
-      <c r="I8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8" t="n">
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
         <v>3638</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="36">
         <v>786</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="36">
         <v>576</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="36">
         <v>894</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="36">
         <v>685</v>
       </c>
-      <c r="O8" s="8" t="n">
+      <c r="O8" s="36">
         <v>807</v>
       </c>
-      <c r="P8" s="8" t="n">
+      <c r="P8" s="36">
         <v>5952</v>
       </c>
-      <c r="Q8" s="8" t="n">
+      <c r="Q8" s="36">
         <v>6110</v>
       </c>
-      <c r="R8" s="8" t="n">
+      <c r="R8" s="36">
         <v>244</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="36">
+        <v>0</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
+      <c r="J9" s="36">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0</v>
+      </c>
+      <c r="L9" s="36">
+        <v>0</v>
+      </c>
+      <c r="M9" s="36">
+        <v>0</v>
+      </c>
+      <c r="N9" s="36">
+        <v>0</v>
+      </c>
+      <c r="O9" s="36">
+        <v>0</v>
+      </c>
+      <c r="P9" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>0</v>
+      </c>
+      <c r="R9" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="36">
         <v>232147</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="36">
         <v>15047</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="36">
         <v>9782</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="36">
         <v>42024</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="36">
         <v>8841</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="36">
         <v>11337</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="36">
         <v>4053</v>
       </c>
-      <c r="I10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8" t="n">
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="36">
         <v>728796</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="36">
         <v>21302</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="36">
         <v>15463</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="M10" s="36">
         <v>25272</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="36">
         <v>15971</v>
       </c>
-      <c r="O10" s="8" t="n">
+      <c r="O10" s="36">
         <v>14121</v>
       </c>
-      <c r="P10" s="8" t="n">
+      <c r="P10" s="36">
         <v>16075</v>
       </c>
-      <c r="Q10" s="8" t="n">
+      <c r="Q10" s="36">
         <v>12982</v>
       </c>
-      <c r="R10" s="8" t="n">
+      <c r="R10" s="36">
         <v>3630</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="36">
         <v>18199</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="36">
         <v>1966</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="36">
         <v>1433</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="36">
         <v>4247</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="36">
         <v>671</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="36">
         <v>1665</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="36">
         <v>733</v>
       </c>
-      <c r="I11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="n">
+      <c r="I11" s="36">
+        <v>0</v>
+      </c>
+      <c r="J11" s="36">
         <v>23075</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="36">
         <v>86345</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="36">
         <v>3156</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="36">
         <v>2297</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="36">
         <v>1072</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="36">
         <v>1125</v>
       </c>
-      <c r="P11" s="8" t="n">
+      <c r="P11" s="36">
         <v>2924</v>
       </c>
-      <c r="Q11" s="8" t="n">
+      <c r="Q11" s="36">
         <v>2080</v>
       </c>
-      <c r="R11" s="8" t="n">
+      <c r="R11" s="36">
         <v>371</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="36">
         <v>11535</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="36">
         <v>1486</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="36">
         <v>1384</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="36">
         <v>2827</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="36">
         <v>670</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="36">
         <v>6318</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="36">
         <v>650</v>
       </c>
-      <c r="I12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8" t="n">
+      <c r="I12" s="36">
+        <v>0</v>
+      </c>
+      <c r="J12" s="36">
         <v>17329</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="36">
         <v>3519</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="36">
         <v>82449</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="36">
         <v>5669</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="N12" s="36">
         <v>1624</v>
       </c>
-      <c r="O12" s="8" t="n">
+      <c r="O12" s="36">
         <v>1100</v>
       </c>
-      <c r="P12" s="8" t="n">
+      <c r="P12" s="36">
         <v>3101</v>
       </c>
-      <c r="Q12" s="8" t="n">
+      <c r="Q12" s="36">
         <v>1680</v>
       </c>
-      <c r="R12" s="8" t="n">
+      <c r="R12" s="36">
         <v>371</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="36">
         <v>18442</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="36">
         <v>2887</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="36">
         <v>1954</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="36">
         <v>6648</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="36">
         <v>1528</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="36">
         <v>14804</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="36">
         <v>1004</v>
       </c>
-      <c r="I13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8" t="n">
+      <c r="I13" s="36">
+        <v>0</v>
+      </c>
+      <c r="J13" s="36">
         <v>29300</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="36">
         <v>2703</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="36">
         <v>5786</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="36">
         <v>101287</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="N13" s="36">
         <v>5044</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="O13" s="36">
         <v>2848</v>
       </c>
-      <c r="P13" s="8" t="n">
+      <c r="P13" s="36">
         <v>3477</v>
       </c>
-      <c r="Q13" s="8" t="n">
+      <c r="Q13" s="36">
         <v>2892</v>
       </c>
-      <c r="R13" s="8" t="n">
+      <c r="R13" s="36">
         <v>569</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="36">
         <v>13931</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="36">
         <v>1515</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="36">
         <v>741</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="36">
         <v>3175</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="36">
         <v>4287</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="36">
         <v>3270</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="36">
         <v>737</v>
       </c>
-      <c r="I14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8" t="n">
+      <c r="I14" s="36">
+        <v>0</v>
+      </c>
+      <c r="J14" s="36">
         <v>15917</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="36">
         <v>1053</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="36">
         <v>1448</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="36">
         <v>4718</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="36">
         <v>137728</v>
       </c>
-      <c r="O14" s="8" t="n">
+      <c r="O14" s="36">
         <v>4728</v>
       </c>
-      <c r="P14" s="8" t="n">
+      <c r="P14" s="36">
         <v>1126</v>
       </c>
-      <c r="Q14" s="8" t="n">
+      <c r="Q14" s="36">
         <v>1914</v>
       </c>
-      <c r="R14" s="8" t="n">
+      <c r="R14" s="36">
         <v>452</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="36">
         <v>12836</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="36">
         <v>2864</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="36">
         <v>735</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="36">
         <v>3013</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="36">
         <v>27487</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="36">
         <v>1328</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="36">
         <v>696</v>
       </c>
-      <c r="I15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8" t="n">
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="36">
         <v>13492</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="36">
         <v>1106</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="36">
         <v>946</v>
       </c>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="36">
         <v>2054</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="36">
         <v>4254</v>
       </c>
-      <c r="O15" s="8" t="n">
+      <c r="O15" s="36">
         <v>96937</v>
       </c>
-      <c r="P15" s="8" t="n">
+      <c r="P15" s="36">
         <v>1340</v>
       </c>
-      <c r="Q15" s="8" t="n">
+      <c r="Q15" s="36">
         <v>3781</v>
       </c>
-      <c r="R15" s="8" t="n">
+      <c r="R15" s="36">
         <v>742</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="16">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="36">
         <v>12598</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="36">
         <v>8465</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="36">
         <v>34859</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="36">
         <v>2988</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="36">
         <v>704</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="36">
         <v>2313</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="36">
         <v>5784</v>
       </c>
-      <c r="I16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8" t="n">
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="36">
         <v>14845</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="36">
         <v>3017</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="36">
         <v>3000</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="36">
         <v>2843</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="36">
         <v>1236</v>
       </c>
-      <c r="O16" s="8" t="n">
+      <c r="O16" s="36">
         <v>1476</v>
       </c>
-      <c r="P16" s="8" t="n">
+      <c r="P16" s="36">
         <v>131471</v>
       </c>
-      <c r="Q16" s="8" t="n">
+      <c r="Q16" s="36">
         <v>8149</v>
       </c>
-      <c r="R16" s="8" t="n">
+      <c r="R16" s="36">
         <v>552</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="36">
         <v>12700</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="36">
         <v>43354</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="36">
         <v>6682</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="36">
         <v>2489</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="36">
         <v>1189</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="36">
         <v>1789</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="36">
         <v>5738</v>
       </c>
-      <c r="I17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8" t="n">
+      <c r="I17" s="36">
+        <v>0</v>
+      </c>
+      <c r="J17" s="36">
         <v>12435</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="36">
         <v>1953</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="36">
         <v>1563</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="36">
         <v>2389</v>
       </c>
-      <c r="N17" s="8" t="n">
+      <c r="N17" s="36">
         <v>1779</v>
       </c>
-      <c r="O17" s="8" t="n">
+      <c r="O17" s="36">
         <v>3638</v>
       </c>
-      <c r="P17" s="8" t="n">
+      <c r="P17" s="36">
         <v>7314</v>
       </c>
-      <c r="Q17" s="8" t="n">
+      <c r="Q17" s="36">
         <v>185279</v>
       </c>
-      <c r="R17" s="8" t="n">
+      <c r="R17" s="36">
         <v>953</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="18">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A18" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="36">
         <v>4616</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="36">
         <v>1388</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="36">
         <v>504</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="36">
         <v>843</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="36">
         <v>555</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="36">
         <v>341</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="36">
         <v>255</v>
       </c>
-      <c r="I18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8" t="n">
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="36">
         <v>4105</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="36">
         <v>413</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="36">
         <v>353</v>
       </c>
-      <c r="M18" s="8" t="n">
+      <c r="M18" s="36">
         <v>543</v>
       </c>
-      <c r="N18" s="8" t="n">
+      <c r="N18" s="36">
         <v>452</v>
       </c>
-      <c r="O18" s="8" t="n">
+      <c r="O18" s="36">
         <v>719</v>
       </c>
-      <c r="P18" s="8" t="n">
+      <c r="P18" s="36">
         <v>568</v>
       </c>
-      <c r="Q18" s="8" t="n">
+      <c r="Q18" s="36">
         <v>950</v>
       </c>
-      <c r="R18" s="8" t="n">
+      <c r="R18" s="36">
         <v>33515</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
+  <pageMargins left="0.7875" right="0.7875" top="1.053" bottom="1.053" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C15" activeCellId="0" pane="topLeft" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8941176470588"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.8666666666667"/>
+    <col min="1" max="1" style="37" width="20.89412" bestFit="1" customWidth="1"/>
+    <col min="2" max="1023" style="37" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1025" style="38" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1026" max="16384" style="39"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="28.35" outlineLevel="0" r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:1025" ht="28.35" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.1" outlineLevel="0" r="2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1025" ht="14.1" customHeight="1">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="45">
         <v>668056</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="45">
         <v>18855</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="45">
         <v>11238</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="45">
         <v>25600</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="45">
         <v>10148</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="45">
         <v>11794</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="45">
         <v>5240</v>
       </c>
-      <c r="I2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="n">
+      <c r="I2" s="45">
+        <v>0</v>
+      </c>
+      <c r="J2" s="45">
         <v>193011</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="45">
         <v>18162</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="45">
         <v>11848</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="45">
         <v>18363</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="45">
         <v>15715</v>
       </c>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="45">
         <v>15015</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="P2" s="45">
         <v>15405</v>
       </c>
-      <c r="Q2" s="8" t="n">
+      <c r="Q2" s="45">
         <v>15313</v>
       </c>
-      <c r="R2" s="8" t="n">
+      <c r="R2" s="45">
         <v>4577</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="45">
         <v>13962</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="45">
         <v>213404</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="45">
         <v>3777</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="45">
         <v>2021</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="45">
         <v>967</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="45">
         <v>1414</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="45">
         <v>7264</v>
       </c>
-      <c r="I3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="n">
+      <c r="I3" s="45">
+        <v>0</v>
+      </c>
+      <c r="J3" s="45">
         <v>10939</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="45">
         <v>1696</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="45">
         <v>1218</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="45">
         <v>1987</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="45">
         <v>1191</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="45">
         <v>2505</v>
       </c>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="45">
         <v>7165</v>
       </c>
-      <c r="Q3" s="8" t="n">
+      <c r="Q3" s="45">
         <v>35310</v>
       </c>
-      <c r="R3" s="8" t="n">
+      <c r="R3" s="45">
         <v>1278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="45">
         <v>8033</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="45">
         <v>3769</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="45">
         <v>144310</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="45">
         <v>1156</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="45">
         <v>401</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="45">
         <v>1183</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="45">
         <v>2262</v>
       </c>
-      <c r="I4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="n">
+      <c r="I4" s="45">
+        <v>0</v>
+      </c>
+      <c r="J4" s="45">
         <v>7621</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="45">
         <v>1212</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="45">
         <v>1162</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="45">
         <v>1300</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="45">
         <v>670</v>
       </c>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="45">
         <v>629</v>
       </c>
-      <c r="P4" s="8" t="n">
+      <c r="P4" s="45">
         <v>32066</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="45">
         <v>6864</v>
       </c>
-      <c r="R4" s="8" t="n">
+      <c r="R4" s="45">
         <v>475</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="45">
         <v>30558</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="45">
         <v>2424</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="45">
         <v>1492</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="45">
         <v>164364</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="45">
         <v>1676</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="45">
         <v>1927</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="45">
         <v>718</v>
       </c>
-      <c r="I5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="n">
+      <c r="I5" s="45">
+        <v>0</v>
+      </c>
+      <c r="J5" s="45">
         <v>42610</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="45">
         <v>3859</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="45">
         <v>2592</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="M5" s="45">
         <v>5578</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="45">
         <v>3002</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="45">
         <v>3249</v>
       </c>
-      <c r="P5" s="8" t="n">
+      <c r="P5" s="45">
         <v>3009</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="45">
         <v>2475</v>
       </c>
-      <c r="R5" s="8" t="n">
+      <c r="R5" s="45">
         <v>787</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="45">
         <v>8623</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="45">
         <v>997</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="45">
         <v>402</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="45">
         <v>1803</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="45">
         <v>99092</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="45">
         <v>1016</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="45">
         <v>311</v>
       </c>
-      <c r="I6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="n">
+      <c r="I6" s="45">
+        <v>0</v>
+      </c>
+      <c r="J6" s="45">
         <v>8356</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="45">
         <v>608</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="45">
         <v>657</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="45">
         <v>1148</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="45">
         <v>4647</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="O6" s="45">
         <v>31204</v>
       </c>
-      <c r="P6" s="8" t="n">
+      <c r="P6" s="45">
         <v>619</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="45">
         <v>1107</v>
       </c>
-      <c r="R6" s="8" t="n">
+      <c r="R6" s="45">
         <v>586</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="45">
         <v>10180</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="45">
         <v>1671</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="45">
         <v>1378</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="45">
         <v>1860</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="45">
         <v>1127</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="45">
         <v>92947</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="45">
         <v>627</v>
       </c>
-      <c r="I7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="n">
+      <c r="I7" s="45">
+        <v>0</v>
+      </c>
+      <c r="J7" s="45">
         <v>10870</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="45">
         <v>1758</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="45">
         <v>6513</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="45">
         <v>15191</v>
       </c>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="45">
         <v>3523</v>
       </c>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="45">
         <v>1443</v>
       </c>
-      <c r="P7" s="8" t="n">
+      <c r="P7" s="45">
         <v>2580</v>
       </c>
-      <c r="Q7" s="8" t="n">
+      <c r="Q7" s="45">
         <v>2037</v>
       </c>
-      <c r="R7" s="8" t="n">
+      <c r="R7" s="45">
         <v>378</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="45">
         <v>3843</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="45">
         <v>8404</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="45">
         <v>2728</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="45">
         <v>688</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="45">
         <v>318</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="45">
         <v>536</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="45">
         <v>58814</v>
       </c>
-      <c r="I8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8" t="n">
+      <c r="I8" s="45">
+        <v>0</v>
+      </c>
+      <c r="J8" s="45">
         <v>3381</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="45">
         <v>852</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="45">
         <v>583</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="45">
         <v>738</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="45">
         <v>583</v>
       </c>
-      <c r="O8" s="8" t="n">
+      <c r="O8" s="45">
         <v>747</v>
       </c>
-      <c r="P8" s="8" t="n">
+      <c r="P8" s="45">
         <v>5948</v>
       </c>
-      <c r="Q8" s="8" t="n">
+      <c r="Q8" s="45">
         <v>5931</v>
       </c>
-      <c r="R8" s="8" t="n">
+      <c r="R8" s="45">
         <v>270</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="45">
+        <v>0</v>
+      </c>
+      <c r="C9" s="45">
+        <v>0</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <v>0</v>
+      </c>
+      <c r="F9" s="45">
+        <v>0</v>
+      </c>
+      <c r="G9" s="45">
+        <v>0</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0</v>
+      </c>
+      <c r="I9" s="45">
+        <v>0</v>
+      </c>
+      <c r="J9" s="45">
+        <v>0</v>
+      </c>
+      <c r="K9" s="45">
+        <v>0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0</v>
+      </c>
+      <c r="M9" s="45">
+        <v>0</v>
+      </c>
+      <c r="N9" s="45">
+        <v>0</v>
+      </c>
+      <c r="O9" s="45">
+        <v>0</v>
+      </c>
+      <c r="P9" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="45">
+        <v>0</v>
+      </c>
+      <c r="R9" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="45">
         <v>253599</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="45">
         <v>14955</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="45">
         <v>10648</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="45">
         <v>45133</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="45">
         <v>9657</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="45">
         <v>12069</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="45">
         <v>3948</v>
       </c>
-      <c r="I10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8" t="n">
+      <c r="I10" s="45">
+        <v>0</v>
+      </c>
+      <c r="J10" s="45">
         <v>758013</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="45">
         <v>22877</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="45">
         <v>16343</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="M10" s="45">
         <v>27081</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="45">
         <v>17038</v>
       </c>
-      <c r="O10" s="8" t="n">
+      <c r="O10" s="45">
         <v>15752</v>
       </c>
-      <c r="P10" s="8" t="n">
+      <c r="P10" s="45">
         <v>17245</v>
       </c>
-      <c r="Q10" s="8" t="n">
+      <c r="Q10" s="45">
         <v>13815</v>
       </c>
-      <c r="R10" s="8" t="n">
+      <c r="R10" s="45">
         <v>3741</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="45">
         <v>17416</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="45">
         <v>1932</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="45">
         <v>1558</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="45">
         <v>4230</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="45">
         <v>774</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="45">
         <v>1646</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="45">
         <v>828</v>
       </c>
-      <c r="I11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="n">
+      <c r="I11" s="45">
+        <v>0</v>
+      </c>
+      <c r="J11" s="45">
         <v>22607</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="45">
         <v>90360</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="45">
         <v>3377</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="45">
         <v>2362</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="45">
         <v>1139</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="45">
         <v>1207</v>
       </c>
-      <c r="P11" s="8" t="n">
+      <c r="P11" s="45">
         <v>2990</v>
       </c>
-      <c r="Q11" s="8" t="n">
+      <c r="Q11" s="45">
         <v>2077</v>
       </c>
-      <c r="R11" s="8" t="n">
+      <c r="R11" s="45">
         <v>374</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A12" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="45">
         <v>11771</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="45">
         <v>1498</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="45">
         <v>1323</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="45">
         <v>3000</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="45">
         <v>625</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="45">
         <v>6373</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="45">
         <v>732</v>
       </c>
-      <c r="I12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8" t="n">
+      <c r="I12" s="45">
+        <v>0</v>
+      </c>
+      <c r="J12" s="45">
         <v>17095</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="45">
         <v>3734</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="45">
         <v>86313</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="45">
         <v>5618</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="N12" s="45">
         <v>1658</v>
       </c>
-      <c r="O12" s="8" t="n">
+      <c r="O12" s="45">
         <v>1070</v>
       </c>
-      <c r="P12" s="8" t="n">
+      <c r="P12" s="45">
         <v>3245</v>
       </c>
-      <c r="Q12" s="8" t="n">
+      <c r="Q12" s="45">
         <v>1680</v>
       </c>
-      <c r="R12" s="8" t="n">
+      <c r="R12" s="45">
         <v>356</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="45">
         <v>18887</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="45">
         <v>2996</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="45">
         <v>2015</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="45">
         <v>6985</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="45">
         <v>1410</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="45">
         <v>14707</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="45">
         <v>1094</v>
       </c>
-      <c r="I13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8" t="n">
+      <c r="I13" s="45">
+        <v>0</v>
+      </c>
+      <c r="J13" s="45">
         <v>28791</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="45">
         <v>2603</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="45">
         <v>5904</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="45">
         <v>101438</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="N13" s="45">
         <v>4927</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="O13" s="45">
         <v>2900</v>
       </c>
-      <c r="P13" s="8" t="n">
+      <c r="P13" s="45">
         <v>3551</v>
       </c>
-      <c r="Q13" s="8" t="n">
+      <c r="Q13" s="45">
         <v>3026</v>
       </c>
-      <c r="R13" s="8" t="n">
+      <c r="R13" s="45">
         <v>610</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A14" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="45">
         <v>14047</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="45">
         <v>1320</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="45">
         <v>667</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="45">
         <v>3116</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="45">
         <v>4285</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="45">
         <v>3160</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="45">
         <v>845</v>
       </c>
-      <c r="I14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8" t="n">
+      <c r="I14" s="45">
+        <v>0</v>
+      </c>
+      <c r="J14" s="45">
         <v>15220</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="45">
         <v>1098</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="45">
         <v>1360</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="45">
         <v>4496</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="45">
         <v>135249</v>
       </c>
-      <c r="O14" s="8" t="n">
+      <c r="O14" s="45">
         <v>4515</v>
       </c>
-      <c r="P14" s="8" t="n">
+      <c r="P14" s="45">
         <v>1109</v>
       </c>
-      <c r="Q14" s="8" t="n">
+      <c r="Q14" s="45">
         <v>1857</v>
       </c>
-      <c r="R14" s="8" t="n">
+      <c r="R14" s="45">
         <v>491</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="45">
         <v>13308</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="45">
         <v>2773</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="45">
         <v>753</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="45">
         <v>3161</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="45">
         <v>27640</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="45">
         <v>1298</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="45">
         <v>723</v>
       </c>
-      <c r="I15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8" t="n">
+      <c r="I15" s="45">
+        <v>0</v>
+      </c>
+      <c r="J15" s="45">
         <v>13864</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="45">
         <v>1048</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="45">
         <v>950</v>
       </c>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="45">
         <v>2062</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="45">
         <v>4289</v>
       </c>
-      <c r="O15" s="8" t="n">
+      <c r="O15" s="45">
         <v>97678</v>
       </c>
-      <c r="P15" s="8" t="n">
+      <c r="P15" s="45">
         <v>1316</v>
       </c>
-      <c r="Q15" s="8" t="n">
+      <c r="Q15" s="45">
         <v>3605</v>
       </c>
-      <c r="R15" s="8" t="n">
+      <c r="R15" s="45">
         <v>743</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="16">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="45">
         <v>12901</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="45">
         <v>8550</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="45">
         <v>34055</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="45">
         <v>2832</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="45">
         <v>653</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="45">
         <v>2330</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="45">
         <v>5913</v>
       </c>
-      <c r="I16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8" t="n">
+      <c r="I16" s="45">
+        <v>0</v>
+      </c>
+      <c r="J16" s="45">
         <v>14345</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="45">
         <v>3072</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="45">
         <v>2951</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="45">
         <v>2628</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="45">
         <v>1219</v>
       </c>
-      <c r="O16" s="8" t="n">
+      <c r="O16" s="45">
         <v>1379</v>
       </c>
-      <c r="P16" s="8" t="n">
+      <c r="P16" s="45">
         <v>129574</v>
       </c>
-      <c r="Q16" s="8" t="n">
+      <c r="Q16" s="45">
         <v>8218</v>
       </c>
-      <c r="R16" s="8" t="n">
+      <c r="R16" s="45">
         <v>559</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A17" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="45">
         <v>12504</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="45">
         <v>42313</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="45">
         <v>7092</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="45">
         <v>2517</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="45">
         <v>1149</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="45">
         <v>1791</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="45">
         <v>6122</v>
       </c>
-      <c r="I17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8" t="n">
+      <c r="I17" s="45">
+        <v>0</v>
+      </c>
+      <c r="J17" s="45">
         <v>11604</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="45">
         <v>2085</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="45">
         <v>1482</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="45">
         <v>2323</v>
       </c>
-      <c r="N17" s="8" t="n">
+      <c r="N17" s="45">
         <v>1729</v>
       </c>
-      <c r="O17" s="8" t="n">
+      <c r="O17" s="45">
         <v>3366</v>
       </c>
-      <c r="P17" s="8" t="n">
+      <c r="P17" s="45">
         <v>7440</v>
       </c>
-      <c r="Q17" s="8" t="n">
+      <c r="Q17" s="45">
         <v>189543</v>
       </c>
-      <c r="R17" s="8" t="n">
+      <c r="R17" s="45">
         <v>949</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="18">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="45">
         <v>4365</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="45">
         <v>1379</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="45">
         <v>501</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="45">
         <v>868</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="45">
         <v>541</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="45">
         <v>310</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="45">
         <v>262</v>
       </c>
-      <c r="I18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8" t="n">
+      <c r="I18" s="45">
+        <v>0</v>
+      </c>
+      <c r="J18" s="45">
         <v>3804</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="45">
         <v>368</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="45">
         <v>368</v>
       </c>
-      <c r="M18" s="8" t="n">
+      <c r="M18" s="45">
         <v>557</v>
       </c>
-      <c r="N18" s="8" t="n">
+      <c r="N18" s="45">
         <v>414</v>
       </c>
-      <c r="O18" s="8" t="n">
+      <c r="O18" s="45">
         <v>778</v>
       </c>
-      <c r="P18" s="8" t="n">
+      <c r="P18" s="45">
         <v>566</v>
       </c>
-      <c r="Q18" s="8" t="n">
+      <c r="Q18" s="45">
         <v>969</v>
       </c>
-      <c r="R18" s="8" t="n">
+      <c r="R18" s="45">
         <v>32202</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
+  <pageMargins left="0.7875" right="0.7875" top="1.053" bottom="1.053" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I12" activeCellId="0" pane="topLeft" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="9" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.8666666666667"/>
+    <col min="1" max="1023" style="46" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1025" style="47" width="11.86667" bestFit="1" customWidth="1"/>
+    <col min="1026" max="16384" style="48"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="9" t="n">
+    <row r="1" spans="1:1025" ht="12.1" customHeight="1">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
         <v>2010</v>
       </c>
-      <c r="C1" s="9" t="n">
+      <c r="C1">
         <v>2011</v>
       </c>
-      <c r="D1" s="9" t="n">
+      <c r="D1">
         <v>2012</v>
       </c>
-      <c r="E1" s="9" t="n">
+      <c r="E1">
         <v>2013</v>
       </c>
-      <c r="F1" s="9" t="n">
+      <c r="F1">
         <v>2014</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="2">
-      <c r="A2" s="7" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="50">
         <v>10175959.5</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="51">
         <v>10116242</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="51">
         <v>10062309</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="50">
         <v>10012711.5</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="50">
         <v>9970992.5</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="3">
-      <c r="A3" s="7" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="50">
         <v>3532636.5</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="50">
         <v>3515775.5</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="50">
         <v>3503507.5</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="51">
         <v>3493213</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="51">
         <v>3485394</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="4">
-      <c r="A4" s="7" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="51">
         <v>2488645</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="51">
         <v>2486311</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="50">
         <v>2484824.5</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="50">
         <v>2483044.5</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="50">
         <v>2477822.5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="5">
-      <c r="A5" s="7" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="50">
         <v>2719075.5</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="50">
         <v>2749973.5</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="50">
         <v>2793503.5</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="50">
         <v>2833204.5</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="51">
         <v>2863670</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="6">
-      <c r="A6" s="7" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="50">
         <v>1439122.5</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="51">
         <v>1449341</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="50">
         <v>1456949.5</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="51">
         <v>1461796</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="50">
         <v>1465396.5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="7">
-      <c r="A7" s="7" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="50">
         <v>1487610.5</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="50">
         <v>1497489.5</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="51">
         <v>1508418</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="50">
         <v>1517298.5</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="50">
         <v>1521389.5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="8">
-      <c r="A8" s="7" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="51">
         <v>1116566</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="50">
         <v>1123225.5</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="50">
         <v>1134133.5</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="51">
         <v>1144912</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="50">
         <v>1154816.5</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10" t="n">
+      <c r="B9" s="50">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="50">
         <v>103384.5</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="50">
         <v>116752.5</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="50">
         <v>138270.5</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A10" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="50">
         <v>11568536.5</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="50">
         <v>11754984.5</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="51">
         <v>11911181</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="51">
         <v>12061219</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="50">
         <v>12196188.5</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A11" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="51">
         <v>1513988</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="51">
         <v>1518846</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="51">
         <v>1523578</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="50">
         <v>1526531.5</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="51">
         <v>1529766</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="12">
-      <c r="A12" s="7" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="51">
         <v>1532983</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="51">
         <v>1545467</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="51">
         <v>1550498</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="51">
         <v>1558806</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="51">
         <v>1565580</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="13">
-      <c r="A13" s="7" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A13" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="51">
         <v>2048972</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="50">
         <v>2073576.5</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="51">
         <v>2006979</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="50">
         <v>2024418.5</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="51">
         <v>2041139</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="14">
-      <c r="A14" s="7" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="51">
         <v>1854957</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="50">
         <v>1858301.5</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="50">
         <v>1860938.5</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="50">
         <v>1860620.5</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="51">
         <v>1860008</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="15">
-      <c r="A15" s="7" t="s">
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="51">
         <v>1908345</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="51">
         <v>1901926</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="51">
         <v>1897994</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="51">
         <v>1894700</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="50">
         <v>1893159.5</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="16">
-      <c r="A16" s="7" t="s">
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A16" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="51">
         <v>2670012</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="50">
         <v>2675375.5</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="51">
         <v>2680452</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="51">
         <v>2680890</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="51">
         <v>2682403</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="17">
-      <c r="A17" s="7" t="s">
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:1025" ht="15.65" customHeight="1">
+      <c r="A17" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="51">
         <v>3258283</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="51">
         <v>3276317</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="50">
         <v>3291678.5</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="51">
         <v>3304756</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="50">
         <v>3321034.5</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="18">
-      <c r="A18" s="7" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A18" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="50">
         <v>564119.5</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="50">
         <v>568323.5</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="50">
         <v>574995.5</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="50">
         <v>584077.5</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F18" s="50">
         <v>596127.5</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
+  <pageMargins left="0.7875" right="0.7875" top="1.053" bottom="1.053" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C9" activeCellId="0" pane="topLeft" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="2" width="11.8117647058824"/>
+    <col min="1" max="1025" style="52" width="11.81176" bestFit="1" customWidth="1"/>
+    <col min="1026" max="16384" style="53"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:1025" ht="12.1" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="7" t="s">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1025" ht="12.1" customHeight="1">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="56">
         <v>40130</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="56">
         <v>40320</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="56">
         <v>41514</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="E2" s="56">
         <v>42063</v>
       </c>
-      <c r="F2" s="12" t="n">
+      <c r="F2" s="56">
         <v>42200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="56">
         <v>19708</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="56">
         <v>19643</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="56">
         <v>20534</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="56">
         <v>20096</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="56">
         <v>20200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="56">
         <v>12054</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="56">
         <v>12355</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="56">
         <v>12352</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="56">
         <v>12531</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="56">
         <v>12700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="56">
         <v>12087</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="56">
         <v>12504</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="56">
         <v>12881</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="56">
         <v>13039</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="56">
         <v>13400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="56">
         <v>6532</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="56">
         <v>6593</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="56">
         <v>6874</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="56">
         <v>6891</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="56">
         <v>7000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="56">
         <v>6313</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="56">
         <v>6336</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="56">
         <v>6580</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="56">
         <v>6634</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="56">
         <v>6600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="56">
         <v>4328</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="56">
         <v>4462</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="56">
         <v>4567</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="56">
         <v>4871</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="56">
         <v>4700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12" t="n">
+      <c r="B9" s="56">
+        <v>0</v>
+      </c>
+      <c r="C9" s="56">
+        <v>0</v>
+      </c>
+      <c r="D9" s="56">
         <v>820</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="56">
         <v>812</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="56">
         <v>900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="56">
         <v>47687</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="56">
         <v>48394</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="56">
         <v>50830</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="56">
         <v>50959</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="56">
         <v>51500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="56">
         <v>10729</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="56">
         <v>10521</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="56">
         <v>11030</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="56">
         <v>10756</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="56">
         <v>11000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="56">
         <v>9825</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="56">
         <v>10176</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="56">
         <v>10478</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="56">
         <v>10371</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="56">
         <v>10200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A13" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="56">
         <v>14014</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="56">
         <v>14025</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="56">
         <v>13994</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="56">
         <v>13854</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="56">
         <v>14200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="56">
         <v>13188</v>
       </c>
-      <c r="C14" s="12" t="n">
+      <c r="C14" s="56">
         <v>13126</v>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="56">
         <v>13700</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="56">
         <v>13492</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="56">
         <v>13600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A15" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="12" t="n">
+      <c r="B15" s="56">
         <v>16042</v>
       </c>
-      <c r="C15" s="12" t="n">
+      <c r="C15" s="56">
         <v>16090</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="56">
         <v>16766</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="56">
         <v>16332</v>
       </c>
-      <c r="F15" s="12" t="n">
+      <c r="F15" s="56">
         <v>16100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="16">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="56">
         <v>20249</v>
       </c>
-      <c r="C16" s="12" t="n">
+      <c r="C16" s="56">
         <v>20237</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="56">
         <v>20644</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="56">
         <v>20245</v>
       </c>
-      <c r="F16" s="12" t="n">
+      <c r="F16" s="56">
         <v>20300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A17" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="12" t="n">
+      <c r="B17" s="56">
         <v>19502</v>
       </c>
-      <c r="C17" s="12" t="n">
+      <c r="C17" s="56">
         <v>19593</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="56">
         <v>20419</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="56">
         <v>19994</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="56">
         <v>20200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="18">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A18" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="56">
         <v>3017</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="56">
         <v>3021</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="56">
         <v>3238</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="56">
         <v>3317</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="56">
         <v>3300</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
+  <pageMargins left="0.7875" right="0.7875" top="1.053" bottom="1.053" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H12" activeCellId="0" pane="topLeft" sqref="H12"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="2" width="11.8117647058824"/>
+    <col min="1" max="1025" style="57" width="11.81176" bestFit="1" customWidth="1"/>
+    <col min="1026" max="16384" style="58"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:1025" ht="12.1" customHeight="1">
+      <c r="A1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="7" t="s">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1025" ht="12.1" customHeight="1">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="n">
-        <v>40130</v>
-      </c>
-      <c r="C2" s="12" t="n">
-        <v>40320</v>
-      </c>
-      <c r="D2" s="12" t="n">
-        <v>41514</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>42063</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>42200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="3">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="61">
+        <v>93268</v>
+      </c>
+      <c r="C2" s="61">
+        <v>91526</v>
+      </c>
+      <c r="D2" s="61">
+        <v>93914</v>
+      </c>
+      <c r="E2" s="61">
+        <v>84066</v>
+      </c>
+      <c r="F2" s="61">
+        <v>83500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="n">
-        <v>19708</v>
-      </c>
-      <c r="C3" s="12" t="n">
-        <v>19643</v>
-      </c>
-      <c r="D3" s="12" t="n">
-        <v>20534</v>
-      </c>
-      <c r="E3" s="12" t="n">
-        <v>20096</v>
-      </c>
-      <c r="F3" s="12" t="n">
-        <v>20200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="4">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="61">
+        <v>27414</v>
+      </c>
+      <c r="C3" s="61">
+        <v>27759</v>
+      </c>
+      <c r="D3" s="61">
+        <v>28673</v>
+      </c>
+      <c r="E3" s="61">
+        <v>25831</v>
+      </c>
+      <c r="F3" s="61">
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>12054</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>12355</v>
-      </c>
-      <c r="D4" s="12" t="n">
-        <v>12352</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>12531</v>
-      </c>
-      <c r="F4" s="12" t="n">
+      <c r="B4" s="61">
+        <v>20557</v>
+      </c>
+      <c r="C4" s="61">
+        <v>20758</v>
+      </c>
+      <c r="D4" s="61">
+        <v>21472</v>
+      </c>
+      <c r="E4" s="61">
+        <v>19340</v>
+      </c>
+      <c r="F4" s="61">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A5" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="61">
+        <v>25752</v>
+      </c>
+      <c r="C5" s="61">
+        <v>26118</v>
+      </c>
+      <c r="D5" s="61">
+        <v>27781</v>
+      </c>
+      <c r="E5" s="61">
+        <v>25560</v>
+      </c>
+      <c r="F5" s="61">
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="61">
+        <v>13979</v>
+      </c>
+      <c r="C6" s="61">
+        <v>13916</v>
+      </c>
+      <c r="D6" s="61">
+        <v>14392</v>
+      </c>
+      <c r="E6" s="61">
+        <v>12729</v>
+      </c>
+      <c r="F6" s="61">
         <v>12700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="5">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="n">
-        <v>12087</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>12504</v>
-      </c>
-      <c r="D5" s="12" t="n">
-        <v>12881</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>13039</v>
-      </c>
-      <c r="F5" s="12" t="n">
+    <row r="7" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A7" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="61">
+        <v>14315</v>
+      </c>
+      <c r="C7" s="61">
+        <v>14808</v>
+      </c>
+      <c r="D7" s="61">
+        <v>15279</v>
+      </c>
+      <c r="E7" s="61">
+        <v>14099</v>
+      </c>
+      <c r="F7" s="61">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A8" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="61">
+        <v>11433</v>
+      </c>
+      <c r="C8" s="61">
+        <v>11542</v>
+      </c>
+      <c r="D8" s="61">
+        <v>12160</v>
+      </c>
+      <c r="E8" s="61">
+        <v>11330</v>
+      </c>
+      <c r="F8" s="61">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A9" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="61">
+        <v>0</v>
+      </c>
+      <c r="C9" s="61">
+        <v>0</v>
+      </c>
+      <c r="D9" s="61">
+        <v>1054</v>
+      </c>
+      <c r="E9" s="61">
+        <v>1111</v>
+      </c>
+      <c r="F9" s="61">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A10" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="61">
+        <v>121751</v>
+      </c>
+      <c r="C10" s="61">
+        <v>122027</v>
+      </c>
+      <c r="D10" s="61">
+        <v>124747</v>
+      </c>
+      <c r="E10" s="61">
+        <v>112128</v>
+      </c>
+      <c r="F10" s="61">
+        <v>112100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A11" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="61">
+        <v>12477</v>
+      </c>
+      <c r="C11" s="61">
+        <v>12408</v>
+      </c>
+      <c r="D11" s="61">
+        <v>12426</v>
+      </c>
+      <c r="E11" s="61">
+        <v>10981</v>
+      </c>
+      <c r="F11" s="61">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A12" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="61">
+        <v>14670</v>
+      </c>
+      <c r="C12" s="61">
+        <v>14804</v>
+      </c>
+      <c r="D12" s="61">
+        <v>15139</v>
+      </c>
+      <c r="E12" s="61">
+        <v>13658</v>
+      </c>
+      <c r="F12" s="61">
         <v>13400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="6">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="n">
-        <v>6532</v>
-      </c>
-      <c r="C6" s="12" t="n">
-        <v>6593</v>
-      </c>
-      <c r="D6" s="12" t="n">
-        <v>6874</v>
-      </c>
-      <c r="E6" s="12" t="n">
-        <v>6891</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="7">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="n">
-        <v>6313</v>
-      </c>
-      <c r="C7" s="12" t="n">
-        <v>6336</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>6580</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>6634</v>
-      </c>
-      <c r="F7" s="12" t="n">
-        <v>6600</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="8">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="n">
-        <v>4328</v>
-      </c>
-      <c r="C8" s="12" t="n">
-        <v>4462</v>
-      </c>
-      <c r="D8" s="12" t="n">
-        <v>4567</v>
-      </c>
-      <c r="E8" s="12" t="n">
-        <v>4871</v>
-      </c>
-      <c r="F8" s="12" t="n">
-        <v>4700</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12" t="n">
-        <v>820</v>
-      </c>
-      <c r="E9" s="12" t="n">
-        <v>812</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="12" t="n">
-        <v>47687</v>
-      </c>
-      <c r="C10" s="12" t="n">
-        <v>48394</v>
-      </c>
-      <c r="D10" s="12" t="n">
-        <v>50830</v>
-      </c>
-      <c r="E10" s="12" t="n">
-        <v>50959</v>
-      </c>
-      <c r="F10" s="12" t="n">
-        <v>51500</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="12" t="n">
-        <v>10729</v>
-      </c>
-      <c r="C11" s="12" t="n">
-        <v>10521</v>
-      </c>
-      <c r="D11" s="12" t="n">
-        <v>11030</v>
-      </c>
-      <c r="E11" s="12" t="n">
-        <v>10756</v>
-      </c>
-      <c r="F11" s="12" t="n">
-        <v>11000</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="12">
-      <c r="A12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="12" t="n">
-        <v>9825</v>
-      </c>
-      <c r="C12" s="12" t="n">
-        <v>10176</v>
-      </c>
-      <c r="D12" s="12" t="n">
-        <v>10478</v>
-      </c>
-      <c r="E12" s="12" t="n">
-        <v>10371</v>
-      </c>
-      <c r="F12" s="12" t="n">
-        <v>10200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>14014</v>
-      </c>
-      <c r="C13" s="12" t="n">
-        <v>14025</v>
-      </c>
-      <c r="D13" s="12" t="n">
-        <v>13994</v>
-      </c>
-      <c r="E13" s="12" t="n">
-        <v>13854</v>
-      </c>
-      <c r="F13" s="12" t="n">
+      <c r="B13" s="61">
+        <v>20242</v>
+      </c>
+      <c r="C13" s="61">
+        <v>20398</v>
+      </c>
+      <c r="D13" s="61">
+        <v>20448</v>
+      </c>
+      <c r="E13" s="61">
+        <v>18628</v>
+      </c>
+      <c r="F13" s="61">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A14" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="61">
+        <v>16100</v>
+      </c>
+      <c r="C14" s="61">
+        <v>16175</v>
+      </c>
+      <c r="D14" s="61">
+        <v>16238</v>
+      </c>
+      <c r="E14" s="61">
+        <v>14555</v>
+      </c>
+      <c r="F14" s="61">
         <v>14200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="14">
-      <c r="A14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="12" t="n">
-        <v>13188</v>
-      </c>
-      <c r="C14" s="12" t="n">
-        <v>13126</v>
-      </c>
-      <c r="D14" s="12" t="n">
-        <v>13700</v>
-      </c>
-      <c r="E14" s="12" t="n">
-        <v>13492</v>
-      </c>
-      <c r="F14" s="12" t="n">
-        <v>13600</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A15" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>16042</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>16090</v>
-      </c>
-      <c r="D15" s="12" t="n">
-        <v>16766</v>
-      </c>
-      <c r="E15" s="12" t="n">
-        <v>16332</v>
-      </c>
-      <c r="F15" s="12" t="n">
-        <v>16100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="16">
-      <c r="A16" s="7" t="s">
+      <c r="B15" s="61">
+        <v>16654</v>
+      </c>
+      <c r="C15" s="61">
+        <v>16612</v>
+      </c>
+      <c r="D15" s="61">
+        <v>16989</v>
+      </c>
+      <c r="E15" s="61">
+        <v>15401</v>
+      </c>
+      <c r="F15" s="61">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A16" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>20249</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>20237</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>20644</v>
-      </c>
-      <c r="E16" s="12" t="n">
-        <v>20245</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>20300</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="17">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="61">
+        <v>23699</v>
+      </c>
+      <c r="C16" s="61">
+        <v>24250</v>
+      </c>
+      <c r="D16" s="61">
+        <v>24635</v>
+      </c>
+      <c r="E16" s="61">
+        <v>22206</v>
+      </c>
+      <c r="F16" s="61">
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1025" ht="12" customHeight="1">
+      <c r="A17" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="12" t="n">
-        <v>19502</v>
-      </c>
-      <c r="C17" s="12" t="n">
-        <v>19593</v>
-      </c>
-      <c r="D17" s="12" t="n">
-        <v>20419</v>
-      </c>
-      <c r="E17" s="12" t="n">
-        <v>19994</v>
-      </c>
-      <c r="F17" s="12" t="n">
-        <v>20200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.15" outlineLevel="0" r="18">
-      <c r="A18" s="7" t="s">
+      <c r="B17" s="61">
+        <v>32203</v>
+      </c>
+      <c r="C17" s="61">
+        <v>32536</v>
+      </c>
+      <c r="D17" s="61">
+        <v>33211</v>
+      </c>
+      <c r="E17" s="61">
+        <v>29504</v>
+      </c>
+      <c r="F17" s="61">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1025" ht="14.15" customHeight="1">
+      <c r="A18" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="n">
-        <v>3017</v>
-      </c>
-      <c r="C18" s="12" t="n">
-        <v>3021</v>
-      </c>
-      <c r="D18" s="12" t="n">
-        <v>3238</v>
-      </c>
-      <c r="E18" s="12" t="n">
-        <v>3317</v>
-      </c>
-      <c r="F18" s="12" t="n">
-        <v>3300</v>
+      <c r="B18" s="61">
+        <v>5657</v>
+      </c>
+      <c r="C18" s="61">
+        <v>5628</v>
+      </c>
+      <c r="D18" s="61">
+        <v>5992</v>
+      </c>
+      <c r="E18" s="61">
+        <v>5328</v>
+      </c>
+      <c r="F18" s="61">
+        <v>5500</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
+  <pageMargins left="0.7875" right="0.7875" top="1.053" bottom="1.053" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
 </worksheet>
 </file>